--- a/E2J/E2JTableList.xlsx
+++ b/E2J/E2JTableList.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>E2JTableList</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>0：Int
 1：String</t>
@@ -46,6 +43,12 @@
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2JConfig</t>
+  </si>
+  <si>
+    <t>E2JTableList</t>
   </si>
 </sst>
 </file>
@@ -418,13 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -443,45 +446,56 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1:XFD1">
       <formula1>"Int,String"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"Int,String,Float"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
